--- a/Code/Results/Cases/Case_5_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_155/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.061113278933988</v>
+        <v>0.5036099671744694</v>
       </c>
       <c r="C2">
-        <v>0.1618476210117308</v>
+        <v>0.0405203490245043</v>
       </c>
       <c r="D2">
-        <v>0.3785165108487547</v>
+        <v>0.1878942985744487</v>
       </c>
       <c r="E2">
-        <v>1.364225124840445</v>
+        <v>0.4023142941575912</v>
       </c>
       <c r="F2">
-        <v>6.646094868315743</v>
+        <v>3.48751082828565</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.126897302980922</v>
+        <v>0.4667827300587533</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9089676810155538</v>
+        <v>0.4724063787152772</v>
       </c>
       <c r="C3">
-        <v>0.1374039567742784</v>
+        <v>0.03569615230428269</v>
       </c>
       <c r="D3">
-        <v>0.3391782294704058</v>
+        <v>0.1760989280804068</v>
       </c>
       <c r="E3">
-        <v>1.163290722026133</v>
+        <v>0.3508673324256222</v>
       </c>
       <c r="F3">
-        <v>5.868307764395894</v>
+        <v>3.266122130889642</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9616681640519857</v>
+        <v>0.4333145590498191</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.818203195549529</v>
+        <v>0.4537886395940234</v>
       </c>
       <c r="C4">
-        <v>0.1229058108584553</v>
+        <v>0.032786681855697</v>
       </c>
       <c r="D4">
-        <v>0.3154707904042624</v>
+        <v>0.168813765352354</v>
       </c>
       <c r="E4">
-        <v>1.043548532792869</v>
+        <v>0.3194104324273752</v>
       </c>
       <c r="F4">
-        <v>5.400462015807534</v>
+        <v>3.13049815831107</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8632198345383131</v>
+        <v>0.4133131964094048</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7817888140667719</v>
+        <v>0.446336625980166</v>
       </c>
       <c r="C5">
-        <v>0.117104898323376</v>
+        <v>0.03161388729661496</v>
       </c>
       <c r="D5">
-        <v>0.305901181346016</v>
+        <v>0.1658337207018263</v>
       </c>
       <c r="E5">
-        <v>0.9955134025281751</v>
+        <v>0.3066218381586054</v>
       </c>
       <c r="F5">
-        <v>5.211873398801032</v>
+        <v>3.075301371088585</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8237457873689209</v>
+        <v>0.4052987025102368</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7757742719294924</v>
+        <v>0.4451073337293394</v>
       </c>
       <c r="C6">
-        <v>0.116147565031838</v>
+        <v>0.03141990975703379</v>
       </c>
       <c r="D6">
-        <v>0.3043171030672767</v>
+        <v>0.1653381897334327</v>
       </c>
       <c r="E6">
-        <v>0.9875790475209669</v>
+        <v>0.3045000542300045</v>
       </c>
       <c r="F6">
-        <v>5.180672560283767</v>
+        <v>3.066140083660343</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8172270731180049</v>
+        <v>0.4039760823098106</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8177098960411513</v>
+        <v>0.4536875947337649</v>
       </c>
       <c r="C7">
-        <v>0.1228271697932399</v>
+        <v>0.0327708136670708</v>
       </c>
       <c r="D7">
-        <v>0.315341387426713</v>
+        <v>0.1687736217987492</v>
       </c>
       <c r="E7">
-        <v>1.042897821886498</v>
+        <v>0.3192378417100628</v>
       </c>
       <c r="F7">
-        <v>5.397910768771766</v>
+        <v>3.129753476227449</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8626850016590879</v>
+        <v>0.4132045607218515</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008042467504055</v>
+        <v>0.4927378209911524</v>
       </c>
       <c r="C8">
-        <v>0.1532999653171601</v>
+        <v>0.03884580997198839</v>
       </c>
       <c r="D8">
-        <v>0.364846723418367</v>
+        <v>0.1838358066363242</v>
       </c>
       <c r="E8">
-        <v>1.294090916600666</v>
+        <v>0.3845463406986056</v>
       </c>
       <c r="F8">
-        <v>6.375653821646267</v>
+        <v>3.411107596284126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.069232251168529</v>
+        <v>0.4551281166546914</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.407254150537995</v>
+        <v>0.5736739766611549</v>
       </c>
       <c r="C9">
-        <v>0.2182187689983266</v>
+        <v>0.05119463413410585</v>
       </c>
       <c r="D9">
-        <v>0.4665467924764641</v>
+        <v>0.2130585166598422</v>
       </c>
       <c r="E9">
-        <v>1.823593975582085</v>
+        <v>0.513793844763029</v>
       </c>
       <c r="F9">
-        <v>8.38984929515405</v>
+        <v>3.965631833296101</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.503878640610566</v>
+        <v>0.5417697655767029</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.724496718037102</v>
+        <v>0.6358907497865118</v>
       </c>
       <c r="C10">
-        <v>0.2709206617864481</v>
+        <v>0.06055955985119965</v>
       </c>
       <c r="D10">
-        <v>0.5458421192851972</v>
+        <v>0.2343733135178923</v>
       </c>
       <c r="E10">
-        <v>2.248795319963691</v>
+        <v>0.6096635881758914</v>
       </c>
       <c r="F10">
-        <v>9.960982682667833</v>
+        <v>4.375243652213783</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.85083028456674</v>
+        <v>0.6082450606347436</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.876283917142217</v>
+        <v>0.6648141964094521</v>
       </c>
       <c r="C11">
-        <v>0.2965127938321785</v>
+        <v>0.06488927881406426</v>
       </c>
       <c r="D11">
-        <v>0.5833943280079836</v>
+        <v>0.244044286443625</v>
       </c>
       <c r="E11">
-        <v>2.45403920968829</v>
+        <v>0.6535182957296115</v>
       </c>
       <c r="F11">
-        <v>10.70446230129312</v>
+        <v>4.562177163855381</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.017351129874555</v>
+        <v>0.6391254755381794</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.935072207115581</v>
+        <v>0.675857676010736</v>
       </c>
       <c r="C12">
-        <v>0.3064926010514313</v>
+        <v>0.06653930966280086</v>
       </c>
       <c r="D12">
-        <v>0.5978771582939544</v>
+        <v>0.2477034236533484</v>
       </c>
       <c r="E12">
-        <v>2.533883755052855</v>
+        <v>0.6701632973674663</v>
       </c>
       <c r="F12">
-        <v>10.99105131126197</v>
+        <v>4.633058606358702</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.08193891060705</v>
+        <v>0.65091327339087</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.922348574867698</v>
+        <v>0.6734752019108612</v>
       </c>
       <c r="C13">
-        <v>0.3043294099509097</v>
+        <v>0.0661834734066673</v>
       </c>
       <c r="D13">
-        <v>0.5947454438140767</v>
+        <v>0.2469154893751977</v>
       </c>
       <c r="E13">
-        <v>2.516585556743777</v>
+        <v>0.6665767486054506</v>
       </c>
       <c r="F13">
-        <v>10.92908818387281</v>
+        <v>4.617788725657761</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.067955635840718</v>
+        <v>0.6483703454628369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.881092695068617</v>
+        <v>0.6657209214455975</v>
       </c>
       <c r="C14">
-        <v>0.2973276896146189</v>
+        <v>0.06502481555871498</v>
       </c>
       <c r="D14">
-        <v>0.5845802560609172</v>
+        <v>0.244345383662079</v>
       </c>
       <c r="E14">
-        <v>2.460562737142268</v>
+        <v>0.6548869062502405</v>
       </c>
       <c r="F14">
-        <v>10.7279330825416</v>
+        <v>4.568006699117689</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.022632328922526</v>
+        <v>0.6400933683955827</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.85600064942787</v>
+        <v>0.6609830716624856</v>
       </c>
       <c r="C15">
-        <v>0.2930783902401828</v>
+        <v>0.06431648011036373</v>
       </c>
       <c r="D15">
-        <v>0.5783896277802114</v>
+        <v>0.2427707397322934</v>
       </c>
       <c r="E15">
-        <v>2.426537886491374</v>
+        <v>0.6477316085806422</v>
       </c>
       <c r="F15">
-        <v>10.60540749703648</v>
+        <v>4.537526212058935</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.995079046335576</v>
+        <v>0.6350357885033304</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714746486095322</v>
+        <v>0.6340131557641371</v>
       </c>
       <c r="C16">
-        <v>0.2692852286412517</v>
+        <v>0.06027804122604152</v>
       </c>
       <c r="D16">
-        <v>0.5434218232393278</v>
+        <v>0.2337408342029619</v>
       </c>
       <c r="E16">
-        <v>2.235654032348691</v>
+        <v>0.6068027451735958</v>
       </c>
       <c r="F16">
-        <v>9.913047494074476</v>
+        <v>4.3630398117634</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.840145317401493</v>
+        <v>0.6062400069797604</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.630158654733577</v>
+        <v>0.617628051291689</v>
       </c>
       <c r="C17">
-        <v>0.2551394937308373</v>
+        <v>0.05781872960029943</v>
       </c>
       <c r="D17">
-        <v>0.5223819026830938</v>
+        <v>0.2281952259481557</v>
       </c>
       <c r="E17">
-        <v>2.121852508562853</v>
+        <v>0.5817587434397922</v>
       </c>
       <c r="F17">
-        <v>9.496271199994595</v>
+        <v>4.256156879186364</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.747506660694995</v>
+        <v>0.5887401450713696</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.582192759063361</v>
+        <v>0.6082621038126774</v>
       </c>
       <c r="C18">
-        <v>0.2471515514363887</v>
+        <v>0.05641071874919135</v>
       </c>
       <c r="D18">
-        <v>0.5104161671947622</v>
+        <v>0.2250031285520748</v>
       </c>
       <c r="E18">
-        <v>2.05747898950878</v>
+        <v>0.5673767794070557</v>
       </c>
       <c r="F18">
-        <v>9.259196117627596</v>
+        <v>4.194736563425209</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.695021671001456</v>
+        <v>0.5787348517135342</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.566063854794123</v>
+        <v>0.6051009270975385</v>
       </c>
       <c r="C19">
-        <v>0.2444709248923118</v>
+        <v>0.0559350965473584</v>
       </c>
       <c r="D19">
-        <v>0.5063867437161491</v>
+        <v>0.2239219077475951</v>
       </c>
       <c r="E19">
-        <v>2.035857662207292</v>
+        <v>0.5625110923185304</v>
       </c>
       <c r="F19">
-        <v>9.179355524807505</v>
+        <v>4.173950073580272</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.677380621187268</v>
+        <v>0.5753575057075579</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.639090536584888</v>
+        <v>0.6193662255468269</v>
       </c>
       <c r="C20">
-        <v>0.2566296136257762</v>
+        <v>0.05807984943244549</v>
       </c>
       <c r="D20">
-        <v>0.524607245443633</v>
+        <v>0.2287858106901695</v>
       </c>
       <c r="E20">
-        <v>2.133852111501426</v>
+        <v>0.5844223494058411</v>
       </c>
       <c r="F20">
-        <v>9.540358074826372</v>
+        <v>4.267528907387884</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.757283729718608</v>
+        <v>0.5905967944376584</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.89317288438906</v>
+        <v>0.6679960649001657</v>
       </c>
       <c r="C21">
-        <v>0.2993759241298903</v>
+        <v>0.06536485388205904</v>
       </c>
       <c r="D21">
-        <v>0.5875584455996545</v>
+        <v>0.2451003641551779</v>
       </c>
       <c r="E21">
-        <v>2.47695650616123</v>
+        <v>0.658319434249762</v>
       </c>
       <c r="F21">
-        <v>10.78687200117014</v>
+        <v>4.582626280412512</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.035900835753182</v>
+        <v>0.6425219487592813</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.067011459230429</v>
+        <v>0.7003084580388474</v>
       </c>
       <c r="C22">
-        <v>0.3290309747838762</v>
+        <v>0.07018721421121654</v>
       </c>
       <c r="D22">
-        <v>0.6302621076308981</v>
+        <v>0.2557453611652534</v>
       </c>
       <c r="E22">
-        <v>2.71384447513401</v>
+        <v>0.7068395096332125</v>
       </c>
       <c r="F22">
-        <v>11.63153556898538</v>
+        <v>4.789110879957605</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.227086490084048</v>
+        <v>0.6770072031174266</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.973427528954005</v>
+        <v>0.6830137140461545</v>
       </c>
       <c r="C23">
-        <v>0.313024444522199</v>
+        <v>0.06760767771636722</v>
       </c>
       <c r="D23">
-        <v>0.6073083745793042</v>
+        <v>0.2500653350336108</v>
       </c>
       <c r="E23">
-        <v>2.586088089562409</v>
+        <v>0.6809218496354106</v>
       </c>
       <c r="F23">
-        <v>11.17762717816765</v>
+        <v>4.678853257815604</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.124106367345206</v>
+        <v>0.6585508671337834</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.635050379293034</v>
+        <v>0.6185802286742899</v>
       </c>
       <c r="C24">
-        <v>0.2559554839943843</v>
+        <v>0.05796177887540921</v>
       </c>
       <c r="D24">
-        <v>0.5236007654565071</v>
+        <v>0.2285188193743579</v>
       </c>
       <c r="E24">
-        <v>2.128423843374776</v>
+        <v>0.5832180830372948</v>
       </c>
       <c r="F24">
-        <v>9.520418568825676</v>
+        <v>4.262387526469752</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.752861125699042</v>
+        <v>0.5897572301927596</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.295718639674874</v>
+        <v>0.5513021923536314</v>
       </c>
       <c r="C25">
-        <v>0.1999315240524879</v>
+        <v>0.04780457923651227</v>
       </c>
       <c r="D25">
-        <v>0.4383741786522108</v>
+        <v>0.2051828911296525</v>
       </c>
       <c r="E25">
-        <v>1.675137195600257</v>
+        <v>0.4786830788613656</v>
       </c>
       <c r="F25">
-        <v>7.831556813924323</v>
+        <v>3.815268189410091</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.382233207331552</v>
+        <v>0.5178445011081578</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_155/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5036099671744694</v>
+        <v>1.061113278934158</v>
       </c>
       <c r="C2">
-        <v>0.0405203490245043</v>
+        <v>0.1618476210117308</v>
       </c>
       <c r="D2">
-        <v>0.1878942985744487</v>
+        <v>0.3785165108485984</v>
       </c>
       <c r="E2">
-        <v>0.4023142941575912</v>
+        <v>1.364225124840431</v>
       </c>
       <c r="F2">
-        <v>3.48751082828565</v>
+        <v>6.646094868315743</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4667827300587533</v>
+        <v>1.126897302980694</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4724063787152772</v>
+        <v>0.9089676810157812</v>
       </c>
       <c r="C3">
-        <v>0.03569615230428269</v>
+        <v>0.1374039567742642</v>
       </c>
       <c r="D3">
-        <v>0.1760989280804068</v>
+        <v>0.33917822947042</v>
       </c>
       <c r="E3">
-        <v>0.3508673324256222</v>
+        <v>1.163290722026119</v>
       </c>
       <c r="F3">
-        <v>3.266122130889642</v>
+        <v>5.868307764395951</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4333145590498191</v>
+        <v>0.9616681640516731</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4537886395940234</v>
+        <v>0.818203195549529</v>
       </c>
       <c r="C4">
-        <v>0.032786681855697</v>
+        <v>0.1229058108584553</v>
       </c>
       <c r="D4">
-        <v>0.168813765352354</v>
+        <v>0.315470790404305</v>
       </c>
       <c r="E4">
-        <v>0.3194104324273752</v>
+        <v>1.043548532792911</v>
       </c>
       <c r="F4">
-        <v>3.13049815831107</v>
+        <v>5.400462015807534</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4133131964094048</v>
+        <v>0.8632198345383699</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.446336625980166</v>
+        <v>0.7817888140666867</v>
       </c>
       <c r="C5">
-        <v>0.03161388729661496</v>
+        <v>0.1171048983232623</v>
       </c>
       <c r="D5">
-        <v>0.1658337207018263</v>
+        <v>0.3059011813463854</v>
       </c>
       <c r="E5">
-        <v>0.3066218381586054</v>
+        <v>0.9955134025281609</v>
       </c>
       <c r="F5">
-        <v>3.075301371088585</v>
+        <v>5.211873398801032</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4052987025102368</v>
+        <v>0.8237457873689209</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4451073337293394</v>
+        <v>0.775774271929464</v>
       </c>
       <c r="C6">
-        <v>0.03141990975703379</v>
+        <v>0.1161475650321506</v>
       </c>
       <c r="D6">
-        <v>0.1653381897334327</v>
+        <v>0.3043171030678167</v>
       </c>
       <c r="E6">
-        <v>0.3045000542300045</v>
+        <v>0.9875790475210806</v>
       </c>
       <c r="F6">
-        <v>3.066140083660343</v>
+        <v>5.180672560283767</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4039760823098106</v>
+        <v>0.817227073118147</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4536875947337649</v>
+        <v>0.817709896041265</v>
       </c>
       <c r="C7">
-        <v>0.0327708136670708</v>
+        <v>0.122827169792771</v>
       </c>
       <c r="D7">
-        <v>0.1687736217987492</v>
+        <v>0.3153413874265425</v>
       </c>
       <c r="E7">
-        <v>0.3192378417100628</v>
+        <v>1.042897821886541</v>
       </c>
       <c r="F7">
-        <v>3.129753476227449</v>
+        <v>5.397910768771766</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4132045607218515</v>
+        <v>0.8626850016590311</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4927378209911524</v>
+        <v>1.00804246750414</v>
       </c>
       <c r="C8">
-        <v>0.03884580997198839</v>
+        <v>0.1532999653171885</v>
       </c>
       <c r="D8">
-        <v>0.1838358066363242</v>
+        <v>0.3648467234185802</v>
       </c>
       <c r="E8">
-        <v>0.3845463406986056</v>
+        <v>1.294090916600808</v>
       </c>
       <c r="F8">
-        <v>3.411107596284126</v>
+        <v>6.37565382164621</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4551281166546914</v>
+        <v>1.069232251168359</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5736739766611549</v>
+        <v>1.407254150537852</v>
       </c>
       <c r="C9">
-        <v>0.05119463413410585</v>
+        <v>0.2182187689987813</v>
       </c>
       <c r="D9">
-        <v>0.2130585166598422</v>
+        <v>0.4665467924762368</v>
       </c>
       <c r="E9">
-        <v>0.513793844763029</v>
+        <v>1.823593975582099</v>
       </c>
       <c r="F9">
-        <v>3.965631833296101</v>
+        <v>8.389849295154022</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5417697655767029</v>
+        <v>1.503878640610594</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6358907497865118</v>
+        <v>1.7244967180375</v>
       </c>
       <c r="C10">
-        <v>0.06055955985119965</v>
+        <v>0.2709206617869455</v>
       </c>
       <c r="D10">
-        <v>0.2343733135178923</v>
+        <v>0.5458421192850835</v>
       </c>
       <c r="E10">
-        <v>0.6096635881758914</v>
+        <v>2.248795319963605</v>
       </c>
       <c r="F10">
-        <v>4.375243652213783</v>
+        <v>9.960982682667634</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6082450606347436</v>
+        <v>1.850830284566655</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6648141964094521</v>
+        <v>1.87628391714216</v>
       </c>
       <c r="C11">
-        <v>0.06488927881406426</v>
+        <v>0.2965127938325907</v>
       </c>
       <c r="D11">
-        <v>0.244044286443625</v>
+        <v>0.5833943280079552</v>
       </c>
       <c r="E11">
-        <v>0.6535182957296115</v>
+        <v>2.454039209688318</v>
       </c>
       <c r="F11">
-        <v>4.562177163855381</v>
+        <v>10.70446230129323</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6391254755381794</v>
+        <v>2.017351129874669</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.675857676010736</v>
+        <v>1.935072207115695</v>
       </c>
       <c r="C12">
-        <v>0.06653930966280086</v>
+        <v>0.3064926010519713</v>
       </c>
       <c r="D12">
-        <v>0.2477034236533484</v>
+        <v>0.5978771582940112</v>
       </c>
       <c r="E12">
-        <v>0.6701632973674663</v>
+        <v>2.533883755052912</v>
       </c>
       <c r="F12">
-        <v>4.633058606358702</v>
+        <v>10.99105131126191</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.65091327339087</v>
+        <v>2.081938910606993</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6734752019108612</v>
+        <v>1.92234857486784</v>
       </c>
       <c r="C13">
-        <v>0.0661834734066673</v>
+        <v>0.3043294099513361</v>
       </c>
       <c r="D13">
-        <v>0.2469154893751977</v>
+        <v>0.5947454438142472</v>
       </c>
       <c r="E13">
-        <v>0.6665767486054506</v>
+        <v>2.516585556743806</v>
       </c>
       <c r="F13">
-        <v>4.617788725657761</v>
+        <v>10.92908818387286</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6483703454628369</v>
+        <v>2.06795563584069</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6657209214455975</v>
+        <v>1.881092695068531</v>
       </c>
       <c r="C14">
-        <v>0.06502481555871498</v>
+        <v>0.2973276896145194</v>
       </c>
       <c r="D14">
-        <v>0.244345383662079</v>
+        <v>0.5845802560608888</v>
       </c>
       <c r="E14">
-        <v>0.6548869062502405</v>
+        <v>2.460562737142254</v>
       </c>
       <c r="F14">
-        <v>4.568006699117689</v>
+        <v>10.72793308254165</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6400933683955827</v>
+        <v>2.022632328922384</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6609830716624856</v>
+        <v>1.85600064942804</v>
       </c>
       <c r="C15">
-        <v>0.06431648011036373</v>
+        <v>0.2930783902393443</v>
       </c>
       <c r="D15">
-        <v>0.2427707397322934</v>
+        <v>0.5783896277800693</v>
       </c>
       <c r="E15">
-        <v>0.6477316085806422</v>
+        <v>2.426537886491374</v>
       </c>
       <c r="F15">
-        <v>4.537526212058935</v>
+        <v>10.60540749703631</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6350357885033304</v>
+        <v>1.995079046335491</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6340131557641371</v>
+        <v>1.714746486095464</v>
       </c>
       <c r="C16">
-        <v>0.06027804122604152</v>
+        <v>0.2692852286403991</v>
       </c>
       <c r="D16">
-        <v>0.2337408342029619</v>
+        <v>0.5434218232396688</v>
       </c>
       <c r="E16">
-        <v>0.6068027451735958</v>
+        <v>2.235654032348748</v>
       </c>
       <c r="F16">
-        <v>4.3630398117634</v>
+        <v>9.913047494074334</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6062400069797604</v>
+        <v>1.840145317401323</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.617628051291689</v>
+        <v>1.630158654733691</v>
       </c>
       <c r="C17">
-        <v>0.05781872960029943</v>
+        <v>0.2551394937311926</v>
       </c>
       <c r="D17">
-        <v>0.2281952259481557</v>
+        <v>0.5223819026832359</v>
       </c>
       <c r="E17">
-        <v>0.5817587434397922</v>
+        <v>2.121852508562753</v>
       </c>
       <c r="F17">
-        <v>4.256156879186364</v>
+        <v>9.496271199994794</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5887401450713696</v>
+        <v>1.747506660694967</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6082621038126774</v>
+        <v>1.58219275906319</v>
       </c>
       <c r="C18">
-        <v>0.05641071874919135</v>
+        <v>0.2471515514354508</v>
       </c>
       <c r="D18">
-        <v>0.2250031285520748</v>
+        <v>0.5104161671945064</v>
       </c>
       <c r="E18">
-        <v>0.5673767794070557</v>
+        <v>2.057478989508738</v>
       </c>
       <c r="F18">
-        <v>4.194736563425209</v>
+        <v>9.259196117627681</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5787348517135342</v>
+        <v>1.695021671001115</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6051009270975385</v>
+        <v>1.566063854793839</v>
       </c>
       <c r="C19">
-        <v>0.0559350965473584</v>
+        <v>0.2444709248918002</v>
       </c>
       <c r="D19">
-        <v>0.2239219077475951</v>
+        <v>0.5063867437165754</v>
       </c>
       <c r="E19">
-        <v>0.5625110923185304</v>
+        <v>2.035857662207363</v>
       </c>
       <c r="F19">
-        <v>4.173950073580272</v>
+        <v>9.179355524807647</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5753575057075579</v>
+        <v>1.677380621187211</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6193662255468269</v>
+        <v>1.639090536585172</v>
       </c>
       <c r="C20">
-        <v>0.05807984943244549</v>
+        <v>0.2566296136253357</v>
       </c>
       <c r="D20">
-        <v>0.2287858106901695</v>
+        <v>0.5246072454434341</v>
       </c>
       <c r="E20">
-        <v>0.5844223494058411</v>
+        <v>2.133852111501469</v>
       </c>
       <c r="F20">
-        <v>4.267528907387884</v>
+        <v>9.540358074826287</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5905967944376584</v>
+        <v>1.75728372971858</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6679960649001657</v>
+        <v>1.893172884389116</v>
       </c>
       <c r="C21">
-        <v>0.06536485388205904</v>
+        <v>0.2993759241303451</v>
       </c>
       <c r="D21">
-        <v>0.2451003641551779</v>
+        <v>0.5875584455996545</v>
       </c>
       <c r="E21">
-        <v>0.658319434249762</v>
+        <v>2.476956506161173</v>
       </c>
       <c r="F21">
-        <v>4.582626280412512</v>
+        <v>10.78687200117025</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6425219487592813</v>
+        <v>2.035900835753438</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7003084580388474</v>
+        <v>2.067011459230258</v>
       </c>
       <c r="C22">
-        <v>0.07018721421121654</v>
+        <v>0.3290309747838052</v>
       </c>
       <c r="D22">
-        <v>0.2557453611652534</v>
+        <v>0.6302621076308128</v>
       </c>
       <c r="E22">
-        <v>0.7068395096332125</v>
+        <v>2.713844475134039</v>
       </c>
       <c r="F22">
-        <v>4.789110879957605</v>
+        <v>11.63153556898556</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6770072031174266</v>
+        <v>2.227086490084133</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6830137140461545</v>
+        <v>1.97342752895409</v>
       </c>
       <c r="C23">
-        <v>0.06760767771636722</v>
+        <v>0.3130244445225401</v>
       </c>
       <c r="D23">
-        <v>0.2500653350336108</v>
+        <v>0.6073083745793895</v>
       </c>
       <c r="E23">
-        <v>0.6809218496354106</v>
+        <v>2.586088089562409</v>
       </c>
       <c r="F23">
-        <v>4.678853257815604</v>
+        <v>11.17762717816794</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6585508671337834</v>
+        <v>2.124106367345519</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6185802286742899</v>
+        <v>1.635050379292693</v>
       </c>
       <c r="C24">
-        <v>0.05796177887540921</v>
+        <v>0.255955483993958</v>
       </c>
       <c r="D24">
-        <v>0.2285188193743579</v>
+        <v>0.5236007654560808</v>
       </c>
       <c r="E24">
-        <v>0.5832180830372948</v>
+        <v>2.128423843374762</v>
       </c>
       <c r="F24">
-        <v>4.262387526469752</v>
+        <v>9.520418568825619</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5897572301927596</v>
+        <v>1.752861125699098</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5513021923536314</v>
+        <v>1.295718639674931</v>
       </c>
       <c r="C25">
-        <v>0.04780457923651227</v>
+        <v>0.1999315240529427</v>
       </c>
       <c r="D25">
-        <v>0.2051828911296525</v>
+        <v>0.4383741786526087</v>
       </c>
       <c r="E25">
-        <v>0.4786830788613656</v>
+        <v>1.675137195600385</v>
       </c>
       <c r="F25">
-        <v>3.815268189410091</v>
+        <v>7.831556813924266</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5178445011081578</v>
+        <v>1.382233207331439</v>
       </c>
       <c r="L25">
         <v>0</v>
